--- a/biology/Botanique/Flora_huayaquilensis/Flora_huayaquilensis.xlsx
+++ b/biology/Botanique/Flora_huayaquilensis/Flora_huayaquilensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Flora Huayaquilensis est un livre de botanique issu d'une des expéditions espagnoles vers l'Amérique du Sud. Il a été écrit par Juan Tafalla (es) pour l'Audience royale de Quito. Les travaux n'ont jamais été publiés au cours de sa vie, mais les matériaux et des peintures ont été conservés en Espagne, au Jardin botanique royal de Madrid.
